--- a/data/trans_orig/P62-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P62-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4679</v>
+        <v>6337</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002929360296960691</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01477961611954181</v>
+        <v>0.02001560801875361</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4980</v>
+        <v>5920</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003056546913638417</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01540519955310578</v>
+        <v>0.01831147799485865</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5879</v>
+        <v>6625</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002993617107809926</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009187811701654024</v>
+        <v>0.01035440231276238</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>315668</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311916</v>
+        <v>310258</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>316595</v>
@@ -824,7 +824,7 @@
         <v>0.9970706397030393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9852203838804582</v>
+        <v>0.9799843919812472</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>322283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>318291</v>
+        <v>317351</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>323271</v>
@@ -845,7 +845,7 @@
         <v>0.9969434530863616</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9845948004468942</v>
+        <v>0.9816885220051415</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>637950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>633987</v>
+        <v>633241</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>639866</v>
@@ -866,7 +866,7 @@
         <v>0.9970063828921901</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9908121882983497</v>
+        <v>0.9896455976872374</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
         <v>6263</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2493</v>
+        <v>2341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13182</v>
+        <v>12476</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0359520433245293</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01430727824299266</v>
+        <v>0.01343829279102248</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07566665023231969</v>
+        <v>0.07161288676421979</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -982,19 +982,19 @@
         <v>10780</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5910</v>
+        <v>4905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19162</v>
+        <v>19734</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03795484246046186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02080775162053053</v>
+        <v>0.01727050846123726</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06746944126843173</v>
+        <v>0.06948185041213002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1003,19 +1003,19 @@
         <v>17043</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9900</v>
+        <v>10437</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27191</v>
+        <v>27341</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03719340329548802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02160404324677036</v>
+        <v>0.02277606873348229</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05933978771778407</v>
+        <v>0.05966736661074432</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>167950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>161031</v>
+        <v>161737</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171720</v>
+        <v>171872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9640479566754707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9243333497676803</v>
+        <v>0.9283871132357799</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9856927217570073</v>
+        <v>0.9865617072089775</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>258</v>
@@ -1053,19 +1053,19 @@
         <v>273237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>264855</v>
+        <v>264283</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>278107</v>
+        <v>279112</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9620451575395381</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9325305587315683</v>
+        <v>0.9305181495878706</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9791922483794696</v>
+        <v>0.9827294915387629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>423</v>
@@ -1074,19 +1074,19 @@
         <v>441187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>431039</v>
+        <v>430889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>448330</v>
+        <v>447793</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.962806596704512</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9406602122822175</v>
+        <v>0.9403326333892557</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.97839595675323</v>
+        <v>0.9772239312665177</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17287</v>
+        <v>18082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33117</v>
+        <v>33693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3598322971634551</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2481331884615642</v>
+        <v>0.2595355533896254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4753353996406942</v>
+        <v>0.4836052703096811</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -1199,19 +1199,19 @@
         <v>19287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11964</v>
+        <v>12294</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29520</v>
+        <v>29971</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05017424761136672</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03112560164285524</v>
+        <v>0.03198246953962657</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07679645995344599</v>
+        <v>0.07797074432660672</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1220,19 +1220,19 @@
         <v>44356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32396</v>
+        <v>32333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56599</v>
+        <v>58937</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09768702196446952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07134659240588473</v>
+        <v>0.07120868804522547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1246507132535747</v>
+        <v>0.1297985468850442</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>44600</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36553</v>
+        <v>35977</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52383</v>
+        <v>51588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6401677028365449</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5246646003593062</v>
+        <v>0.516394729690319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7518668115384359</v>
+        <v>0.7404644466103746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>351</v>
@@ -1270,19 +1270,19 @@
         <v>365107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>354874</v>
+        <v>354423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>372430</v>
+        <v>372100</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9498257523886333</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.923203540046555</v>
+        <v>0.922029255673393</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9688743983571453</v>
+        <v>0.9680175304603733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>391</v>
@@ -1291,19 +1291,19 @@
         <v>409708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>397465</v>
+        <v>395127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>421668</v>
+        <v>421731</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9023129780355305</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8753492867464254</v>
+        <v>0.8702014531149558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9286534075941153</v>
+        <v>0.9287913119547745</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>45794</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36409</v>
+        <v>36164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55961</v>
+        <v>54551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5665707236041018</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4504590800236339</v>
+        <v>0.447429058385202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6923527903200509</v>
+        <v>0.6749061282361499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -1416,19 +1416,19 @@
         <v>41061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30577</v>
+        <v>29978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54656</v>
+        <v>53561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.11911106776232</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08869815886956744</v>
+        <v>0.08696037496714641</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1585481500642953</v>
+        <v>0.1553720245534995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -1437,19 +1437,19 @@
         <v>86855</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70475</v>
+        <v>70939</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102676</v>
+        <v>103132</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2040985013616803</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1656080466202135</v>
+        <v>0.1666990410605771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2412766642733949</v>
+        <v>0.2423477689585638</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>35033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24866</v>
+        <v>26276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44418</v>
+        <v>44663</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4334292763958983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3076472096799491</v>
+        <v>0.3250938717638501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5495409199763666</v>
+        <v>0.5525709416147981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -1487,19 +1487,19 @@
         <v>303667</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>290072</v>
+        <v>291167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314151</v>
+        <v>314750</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8808889322376799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8414518499357048</v>
+        <v>0.8446279754465005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9113018411304326</v>
+        <v>0.9130396250328534</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>330</v>
@@ -1508,19 +1508,19 @@
         <v>338699</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>322878</v>
+        <v>322422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>355079</v>
+        <v>354615</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7959014986383197</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7587233357266049</v>
+        <v>0.7576522310414364</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8343919533797864</v>
+        <v>0.8333009589394231</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>171572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157993</v>
+        <v>158155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182455</v>
+        <v>183199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.777717368326858</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7161649405443635</v>
+        <v>0.7169003257000137</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8270455484061404</v>
+        <v>0.8304191067340345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1633,19 +1633,19 @@
         <v>81972</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66599</v>
+        <v>66155</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98636</v>
+        <v>97199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2419235524369007</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1965522517162819</v>
+        <v>0.1952425782004449</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2911039105994431</v>
+        <v>0.2868645717164447</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>255</v>
@@ -1654,19 +1654,19 @@
         <v>253544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232322</v>
+        <v>229545</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>277680</v>
+        <v>276127</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4532077441710016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4152722105783417</v>
+        <v>0.4103086259828221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4963499369055364</v>
+        <v>0.4935738596331469</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>49038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38155</v>
+        <v>37411</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62617</v>
+        <v>62455</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.222282631673142</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1729544515938596</v>
+        <v>0.1695808932659653</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2838350594556364</v>
+        <v>0.2830996742999862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>252</v>
@@ -1704,19 +1704,19 @@
         <v>256862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>240198</v>
+        <v>241635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>272235</v>
+        <v>272679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7580764475630993</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7088960894005566</v>
+        <v>0.7131354282835554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.803447748283718</v>
+        <v>0.804757421799555</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>301</v>
@@ -1725,19 +1725,19 @@
         <v>305900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>281764</v>
+        <v>283317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327122</v>
+        <v>329899</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5467922558289984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5036500630944636</v>
+        <v>0.5064261403668531</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5847277894216584</v>
+        <v>0.5896913740171777</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>285674</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>280333</v>
+        <v>280260</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>288435</v>
+        <v>288335</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9850315016591219</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9666162559676924</v>
+        <v>0.9663635301106088</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9945503241218419</v>
+        <v>0.9942067184606553</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>191</v>
@@ -1850,19 +1850,19 @@
         <v>176739</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161294</v>
+        <v>159336</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193940</v>
+        <v>193912</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5221801951086817</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4765470574829823</v>
+        <v>0.4707628700018848</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5730014938474325</v>
+        <v>0.5729194899527912</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>487</v>
@@ -1871,19 +1871,19 @@
         <v>462413</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>440971</v>
+        <v>442538</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>482511</v>
+        <v>484120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7357658038565178</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.70164734811395</v>
+        <v>0.7041409877172645</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7677442641243591</v>
+        <v>0.7703041262825017</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>4341</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1580</v>
+        <v>1680</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9682</v>
+        <v>9755</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01496849834087815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00544967587815817</v>
+        <v>0.005793281539344756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03338374403230774</v>
+        <v>0.03363646988939122</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>175</v>
@@ -1921,19 +1921,19 @@
         <v>161724</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>144523</v>
+        <v>144551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177169</v>
+        <v>179127</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4778198048913183</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4269985061525673</v>
+        <v>0.4270805100472088</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5234529425170175</v>
+        <v>0.5292371299981152</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>180</v>
@@ -1942,19 +1942,19 @@
         <v>166066</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>145968</v>
+        <v>144359</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>187508</v>
+        <v>185941</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2642341961434822</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2322557358756398</v>
+        <v>0.2296958737174984</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.29835265188605</v>
+        <v>0.2958590122827359</v>
       </c>
     </row>
     <row r="21">
@@ -2046,7 +2046,7 @@
         <v>206377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>201727</v>
+        <v>201436</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>207412</v>
@@ -2055,7 +2055,7 @@
         <v>0.9950123193530304</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.972588829967108</v>
+        <v>0.971186611019343</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2067,19 +2067,19 @@
         <v>247304</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>230530</v>
+        <v>228789</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>263585</v>
+        <v>263211</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7430246267370453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6926273302355104</v>
+        <v>0.6873961249499387</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.791940965616852</v>
+        <v>0.7908190176151229</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>431</v>
@@ -2088,19 +2088,19 @@
         <v>453682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>434799</v>
+        <v>433249</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>470919</v>
+        <v>469995</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8397681004822508</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8048152503543219</v>
+        <v>0.8019454050014281</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8716734766988068</v>
+        <v>0.8699634482721191</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5685</v>
+        <v>5976</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004987680646969619</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02741117003289222</v>
+        <v>0.02881338898065692</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>74</v>
@@ -2138,19 +2138,19 @@
         <v>85530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>69249</v>
+        <v>69623</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>102304</v>
+        <v>104045</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2569753732629547</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2080590343831479</v>
+        <v>0.2091809823848771</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3073726697644896</v>
+        <v>0.3126038750500612</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>75</v>
@@ -2159,19 +2159,19 @@
         <v>86565</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>69328</v>
+        <v>70252</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>105448</v>
+        <v>106998</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1602318995177492</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1283265233011931</v>
+        <v>0.1300365517278809</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1951847496456781</v>
+        <v>0.1980545949985721</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>741679</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.545615780097335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>558</v>
@@ -2284,19 +2284,19 @@
         <v>578130</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2463755773799956</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1318</v>
@@ -2305,19 +2305,19 @@
         <v>1319809</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3561388928180357</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>617664</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>582569</v>
+        <v>580441</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>650521</v>
+        <v>650196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4543842199026649</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4285669050275182</v>
+        <v>0.427000847589141</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4785552573563461</v>
+        <v>0.478316366868248</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1750</v>
@@ -2355,19 +2355,19 @@
         <v>1768411</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1726528</v>
+        <v>1725222</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1811152</v>
+        <v>1805813</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7536244226200044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.735775673088387</v>
+        <v>0.7352193626169249</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7718389910035673</v>
+        <v>0.7695637615078265</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2368</v>
@@ -2376,19 +2376,19 @@
         <v>2386074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2329698</v>
+        <v>2330518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2445346</v>
+        <v>2442316</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6438611071819642</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6286486494376349</v>
+        <v>0.6288697353972486</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6598552399960039</v>
+        <v>0.6590376672271135</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>3931</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1042</v>
+        <v>973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10546</v>
+        <v>9663</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0109159366051716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002893312014806699</v>
+        <v>0.002701025013968705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.029286055211445</v>
+        <v>0.0268326049965117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2744,19 +2744,19 @@
         <v>9677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4916</v>
+        <v>4667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17893</v>
+        <v>17919</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02841699120560159</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01443599488415808</v>
+        <v>0.01370645160849428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05254488424464576</v>
+        <v>0.05262207353541491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2765,19 +2765,19 @@
         <v>13608</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7577</v>
+        <v>7058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22385</v>
+        <v>22657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01942178817212505</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01081392213671533</v>
+        <v>0.01007359163524831</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03194898258492856</v>
+        <v>0.03233655338255467</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>356189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>349574</v>
+        <v>350457</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>359078</v>
+        <v>359147</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9890840633948284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9707139447885555</v>
+        <v>0.9731673950034886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9971066879851933</v>
+        <v>0.9972989749860313</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>324</v>
@@ -2815,19 +2815,19 @@
         <v>330852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322636</v>
+        <v>322610</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>335613</v>
+        <v>335862</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9715830087943984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.947455115755354</v>
+        <v>0.947377926464585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9855640051158419</v>
+        <v>0.9862935483915056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -2836,19 +2836,19 @@
         <v>687041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678264</v>
+        <v>677992</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>693072</v>
+        <v>693591</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.980578211827875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9680510174150714</v>
+        <v>0.9676634466174453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891860778632846</v>
+        <v>0.9899264083647517</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>16750</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9848</v>
+        <v>9899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27131</v>
+        <v>25373</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05576918438114202</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03279017240559843</v>
+        <v>0.03296008762298659</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09033465824468292</v>
+        <v>0.08448016613997822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2961,19 +2961,19 @@
         <v>25294</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16351</v>
+        <v>16471</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37222</v>
+        <v>36742</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07711645430397222</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04984923488055902</v>
+        <v>0.05021728151253577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1134805006237174</v>
+        <v>0.1120174443538452</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2982,19 +2982,19 @@
         <v>42044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30453</v>
+        <v>30289</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55837</v>
+        <v>56076</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06691268658441883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04846540400108271</v>
+        <v>0.04820530829236427</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08886372530288938</v>
+        <v>0.08924432789180808</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>283590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273209</v>
+        <v>274967</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290492</v>
+        <v>290441</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.944230815618858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9096653417553173</v>
+        <v>0.9155198338600216</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9672098275944015</v>
+        <v>0.9670399123770134</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>285</v>
@@ -3032,19 +3032,19 @@
         <v>302707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290779</v>
+        <v>291259</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>311650</v>
+        <v>311530</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9228835456960278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8865194993762825</v>
+        <v>0.8879825556461546</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.950150765119441</v>
+        <v>0.9497827184874641</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>564</v>
@@ -3053,19 +3053,19 @@
         <v>586297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>572504</v>
+        <v>572265</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>597888</v>
+        <v>598052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9330873134155812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9111362746971107</v>
+        <v>0.9107556721081917</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515345959989173</v>
+        <v>0.9517946917076356</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>46723</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34926</v>
+        <v>33452</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62202</v>
+        <v>60757</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1857988846894032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1388877000220644</v>
+        <v>0.1330269800776147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2473525570620679</v>
+        <v>0.2416078619806498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -3178,19 +3178,19 @@
         <v>39667</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27755</v>
+        <v>27977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55359</v>
+        <v>54108</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.095279492973128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06666678937371298</v>
+        <v>0.06719994700666096</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.132970857438597</v>
+        <v>0.1299645969690276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -3199,19 +3199,19 @@
         <v>86390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71061</v>
+        <v>67640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108099</v>
+        <v>106044</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1293660608921297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1064119644696052</v>
+        <v>0.1012886621066518</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1618738503485375</v>
+        <v>0.1587962786115298</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>204746</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189267</v>
+        <v>190712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>216543</v>
+        <v>218017</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8142011153105968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7526474429379322</v>
+        <v>0.7583921380193502</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8611122999779357</v>
+        <v>0.8669730199223854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>352</v>
@@ -3249,19 +3249,19 @@
         <v>376659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>360967</v>
+        <v>362218</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>388571</v>
+        <v>388349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.904720507026872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8670291425614031</v>
+        <v>0.8700354030309724</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9333332106262867</v>
+        <v>0.9328000529933389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>546</v>
@@ -3270,19 +3270,19 @@
         <v>581406</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>559697</v>
+        <v>561752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>596735</v>
+        <v>600156</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8706339391078703</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8381261496514624</v>
+        <v>0.8412037213884702</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8935880355303949</v>
+        <v>0.8987113378933482</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>75827</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61638</v>
+        <v>62417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91059</v>
+        <v>91821</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3096639530557005</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2517173477973007</v>
+        <v>0.2548986835721624</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3718701971964488</v>
+        <v>0.3749832297800681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3395,19 +3395,19 @@
         <v>54635</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41357</v>
+        <v>41724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70200</v>
+        <v>70396</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1428395163212881</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1081249588982629</v>
+        <v>0.1090853193200892</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1835331941531284</v>
+        <v>0.1840458525588814</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -3416,19 +3416,19 @@
         <v>130462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108569</v>
+        <v>109578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>153054</v>
+        <v>153936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.207953654511233</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1730579639504747</v>
+        <v>0.1746648182349791</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2439651798645253</v>
+        <v>0.2453707061376</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>169041</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>153809</v>
+        <v>153047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183230</v>
+        <v>182451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6903360469442995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6281298028035512</v>
+        <v>0.6250167702199318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7482826522026993</v>
+        <v>0.7451013164278376</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -3466,19 +3466,19 @@
         <v>327856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>312291</v>
+        <v>312095</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>341134</v>
+        <v>340767</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8571604836787119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8164668058468728</v>
+        <v>0.8159541474411183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8918750411017372</v>
+        <v>0.8909146806799105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>443</v>
@@ -3487,19 +3487,19 @@
         <v>496897</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>474305</v>
+        <v>473423</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>518790</v>
+        <v>517781</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.792046345488767</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7560348201354744</v>
+        <v>0.7546292938624</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.826942036049525</v>
+        <v>0.825335181765021</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>174529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157087</v>
+        <v>158224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190507</v>
+        <v>191008</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6512393341213817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5861551043243389</v>
+        <v>0.5903983055083356</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.710859171471356</v>
+        <v>0.7127299325418029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -3612,19 +3612,19 @@
         <v>95754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78461</v>
+        <v>78662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114741</v>
+        <v>113602</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2580588066125999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2114539021203093</v>
+        <v>0.211996034140485</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3092283409312243</v>
+        <v>0.3061599114934775</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>247</v>
@@ -3633,19 +3633,19 @@
         <v>270283</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>243309</v>
+        <v>243541</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297684</v>
+        <v>297642</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4229449798093968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3807350015527971</v>
+        <v>0.3810980541204558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4658223300100202</v>
+        <v>0.4657569506513917</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>93466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77488</v>
+        <v>76987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>110908</v>
+        <v>109771</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3487606658786184</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2891408285286441</v>
+        <v>0.2872700674581974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4138448956756611</v>
+        <v>0.4096016944916643</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>249</v>
@@ -3683,19 +3683,19 @@
         <v>275301</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>256314</v>
+        <v>257453</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>292594</v>
+        <v>292393</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7419411933874001</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6907716590687758</v>
+        <v>0.6938400885065226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7885460978796902</v>
+        <v>0.788003965859515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>332</v>
@@ -3704,19 +3704,19 @@
         <v>368767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>341366</v>
+        <v>341408</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>395741</v>
+        <v>395509</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5770550201906033</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5341776699899802</v>
+        <v>0.5342430493486084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6192649984472033</v>
+        <v>0.6189019458795443</v>
       </c>
     </row>
     <row r="18">
@@ -3808,7 +3808,7 @@
         <v>305672</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>301191</v>
+        <v>301119</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>306770</v>
@@ -3817,7 +3817,7 @@
         <v>0.996419251274952</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9818142131672499</v>
+        <v>0.9815780055438381</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -3829,19 +3829,19 @@
         <v>225580</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>208937</v>
+        <v>207708</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243311</v>
+        <v>242909</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6477735621139941</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5999825045417556</v>
+        <v>0.5964524149792333</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.698690523519902</v>
+        <v>0.6975366237789683</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>497</v>
@@ -3850,19 +3850,19 @@
         <v>531251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>510342</v>
+        <v>509435</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>549532</v>
+        <v>550793</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8110598469470822</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7791371586734739</v>
+        <v>0.77775279554191</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8389681586392623</v>
+        <v>0.8408932039754071</v>
       </c>
     </row>
     <row r="20">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5579</v>
+        <v>5651</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003580748725047966</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01818578683275007</v>
+        <v>0.01842199445616189</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -3900,19 +3900,19 @@
         <v>122659</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104928</v>
+        <v>105330</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>139302</v>
+        <v>140531</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3522264378860059</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.301309476480098</v>
+        <v>0.3024633762210318</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4000174954582447</v>
+        <v>0.403547585020767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>120</v>
@@ -3921,19 +3921,19 @@
         <v>123758</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105477</v>
+        <v>104216</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144667</v>
+        <v>145574</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1889401530529178</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1610318413607378</v>
+        <v>0.1591067960245929</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2208628413265264</v>
+        <v>0.22224720445809</v>
       </c>
     </row>
     <row r="21">
@@ -4025,7 +4025,7 @@
         <v>248789</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>243357</v>
+        <v>244977</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>249851</v>
@@ -4034,7 +4034,7 @@
         <v>0.995750620712339</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9740080696729971</v>
+        <v>0.9804937122619952</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -4046,19 +4046,19 @@
         <v>297611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>279292</v>
+        <v>280202</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>313142</v>
+        <v>314692</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7692226475267117</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.721874366571234</v>
+        <v>0.7242258180587418</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8093649676508037</v>
+        <v>0.8133723178381709</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>488</v>
@@ -4067,19 +4067,19 @@
         <v>546400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>526878</v>
+        <v>527271</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>564315</v>
+        <v>562333</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8581089303569959</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8274498887950668</v>
+        <v>0.8280677165632232</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8862447388515726</v>
+        <v>0.8831308909274299</v>
       </c>
     </row>
     <row r="23">
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6494</v>
+        <v>4874</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004249379287661037</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02599193032700273</v>
+        <v>0.01950628773800404</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -4117,19 +4117,19 @@
         <v>89287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>73756</v>
+        <v>72206</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>107606</v>
+        <v>106696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2307773524732883</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1906350323491959</v>
+        <v>0.1866276821618293</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.278125633428766</v>
+        <v>0.2757741819412584</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>82</v>
@@ -4138,19 +4138,19 @@
         <v>90349</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>72434</v>
+        <v>74416</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>109871</v>
+        <v>109478</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1418910696430041</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1137552611484275</v>
+        <v>0.1168691090725701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1725501112049333</v>
+        <v>0.1719322834367769</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>872220</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>825377</v>
+        <v>828209</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>916397</v>
+        <v>917448</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4402008230285644</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4165599947831586</v>
+        <v>0.4179888818832902</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4624968442727683</v>
+        <v>0.4630271117155343</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>689</v>
@@ -4263,19 +4263,19 @@
         <v>748218</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>702346</v>
+        <v>703200</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>798323</v>
+        <v>794106</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2907350259202509</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2729106663099228</v>
+        <v>0.2732423443920264</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3102045627229664</v>
+        <v>0.3085658548296076</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1476</v>
@@ -4284,19 +4284,19 @@
         <v>1620438</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1558675</v>
+        <v>1555332</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1689337</v>
+        <v>1683477</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3557529550475588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3421935555380589</v>
+        <v>0.3414595838440916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3708792537051283</v>
+        <v>0.3695926601226737</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1109193</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1065016</v>
+        <v>1063965</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1156036</v>
+        <v>1153204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5597991769714356</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5375031557272318</v>
+        <v>0.5369728882844657</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5834400052168417</v>
+        <v>0.5820111181167098</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1699</v>
@@ -4334,19 +4334,19 @@
         <v>1825320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1775215</v>
+        <v>1779432</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1871192</v>
+        <v>1870338</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7092649740797492</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6897954372770339</v>
+        <v>0.6914341451703924</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7270893336900771</v>
+        <v>0.7267576556079737</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2764</v>
@@ -4355,19 +4355,19 @@
         <v>2934514</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2865615</v>
+        <v>2871475</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2996277</v>
+        <v>2999620</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6442470449524412</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6291207462948718</v>
+        <v>0.6304073398773264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6578064444619411</v>
+        <v>0.6585404161559085</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>4483</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11106</v>
+        <v>11232</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01370969385114452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003230772176264468</v>
+        <v>0.003245029399463754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03396470820825592</v>
+        <v>0.03434908317147306</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4723,19 +4723,19 @@
         <v>10621</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5628</v>
+        <v>5789</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18491</v>
+        <v>19161</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03678047097947553</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0194909757058842</v>
+        <v>0.02004657549554595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06403224424118233</v>
+        <v>0.06635230679820432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -4744,19 +4744,19 @@
         <v>15104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8810</v>
+        <v>8856</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24747</v>
+        <v>24538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02452897873544671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01430681371338704</v>
+        <v>0.01438257225853774</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04018850458736577</v>
+        <v>0.03984838486737291</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>322518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315895</v>
+        <v>315769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>325945</v>
+        <v>325940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9862903061488555</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9660352917917444</v>
+        <v>0.965650916828527</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9967692278237356</v>
+        <v>0.9967549706005362</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>285</v>
@@ -4794,19 +4794,19 @@
         <v>278153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270283</v>
+        <v>269613</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>283146</v>
+        <v>282985</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9632195290205244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9359677557588176</v>
+        <v>0.9336476932017954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9805090242941158</v>
+        <v>0.979953424504454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>588</v>
@@ -4815,19 +4815,19 @@
         <v>600671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>591028</v>
+        <v>591237</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>606965</v>
+        <v>606919</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9754710212645533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9598114954126341</v>
+        <v>0.960151615132627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9856931862866128</v>
+        <v>0.9856174277414622</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>14440</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8091</v>
+        <v>8394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22694</v>
+        <v>23934</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05931430703337078</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03323555756715213</v>
+        <v>0.03448085142630247</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09322029866512802</v>
+        <v>0.09831133415350234</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4940,19 +4940,19 @@
         <v>12850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7071</v>
+        <v>6719</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21313</v>
+        <v>20237</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04516640598513458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02485317238788619</v>
+        <v>0.02361671533459921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07491503992452471</v>
+        <v>0.07113512356707373</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -4961,19 +4961,19 @@
         <v>27289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18195</v>
+        <v>17977</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37895</v>
+        <v>39846</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05169039410948332</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03446398084278152</v>
+        <v>0.034051141700395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07177813492410461</v>
+        <v>0.07547516842449219</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>229008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>220754</v>
+        <v>219514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>235357</v>
+        <v>235054</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9406856929666292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9067797013348721</v>
+        <v>0.9016886658464977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9667644424328479</v>
+        <v>0.9655191485736976</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>278</v>
@@ -5011,19 +5011,19 @@
         <v>271643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>263180</v>
+        <v>264256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277422</v>
+        <v>277774</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9548335940148654</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9250849600754756</v>
+        <v>0.9288648764329263</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9751468276121139</v>
+        <v>0.9763832846654009</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>499</v>
@@ -5032,19 +5032,19 @@
         <v>500652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>490046</v>
+        <v>488095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>509746</v>
+        <v>509964</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9483096058905167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9282218650758954</v>
+        <v>0.9245248315755078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9655360191572184</v>
+        <v>0.965948858299605</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>29525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21110</v>
+        <v>20667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41391</v>
+        <v>40515</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1418124237529144</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1013959123748253</v>
+        <v>0.09926794447715447</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1988074936290422</v>
+        <v>0.1945995880426201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -5157,19 +5157,19 @@
         <v>29632</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20718</v>
+        <v>21251</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41705</v>
+        <v>41484</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08638149577817394</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06039641032807869</v>
+        <v>0.06194980395938268</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.121577912475826</v>
+        <v>0.1209338111130272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -5178,19 +5178,19 @@
         <v>59156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>45632</v>
+        <v>45014</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74987</v>
+        <v>74430</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1073173609690839</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08278178194215771</v>
+        <v>0.08166178891994984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1360359372930465</v>
+        <v>0.1350253419292813</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>178670</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>166804</v>
+        <v>167680</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>187085</v>
+        <v>187528</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8581875762470855</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8011925063709574</v>
+        <v>0.8054004119573799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8986040876251746</v>
+        <v>0.9007320555228454</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -5228,19 +5228,19 @@
         <v>313401</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>301328</v>
+        <v>301549</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>322315</v>
+        <v>321782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9136185042218261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8784220875241741</v>
+        <v>0.8790661888869731</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9396035896719217</v>
+        <v>0.9380501960406175</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>486</v>
@@ -5249,19 +5249,19 @@
         <v>492071</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>476240</v>
+        <v>476797</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>505595</v>
+        <v>506213</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.892682639030916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8639640627069535</v>
+        <v>0.8649746580707188</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9172182180578422</v>
+        <v>0.9183382110800503</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>79808</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64682</v>
+        <v>64512</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95696</v>
+        <v>95682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.28806208194725</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2334654454058372</v>
+        <v>0.2328523787393176</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3454074838355458</v>
+        <v>0.3453550896761468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -5374,19 +5374,19 @@
         <v>47340</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>35064</v>
+        <v>36759</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62768</v>
+        <v>62684</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1201896762806884</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08902339185931571</v>
+        <v>0.09332612981656078</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1593597485163726</v>
+        <v>0.1591449912553272</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -5395,19 +5395,19 @@
         <v>127148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106940</v>
+        <v>107781</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>147784</v>
+        <v>149894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1895107034274216</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1593908702875925</v>
+        <v>0.1606446337410503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2202681112517643</v>
+        <v>0.2234121633670725</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>197245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181357</v>
+        <v>181371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212371</v>
+        <v>212541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.71193791805275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6545925161644542</v>
+        <v>0.6546449103238529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7665345545941628</v>
+        <v>0.7671476212606821</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>324</v>
@@ -5445,19 +5445,19 @@
         <v>346537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>331109</v>
+        <v>331193</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>358813</v>
+        <v>357118</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8798103237193116</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8406402514836278</v>
+        <v>0.8408550087446727</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9109766081406847</v>
+        <v>0.9066738701834388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>502</v>
@@ -5466,19 +5466,19 @@
         <v>543782</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>523146</v>
+        <v>521036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>563990</v>
+        <v>563149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8104892965725784</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7797318887482357</v>
+        <v>0.7765878366329274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8406091297124075</v>
+        <v>0.8393553662589497</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>200303</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>183094</v>
+        <v>183083</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>218058</v>
+        <v>217065</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6454919337659221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.590034835896406</v>
+        <v>0.5899971168733646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7027071498427883</v>
+        <v>0.6995070783357001</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>99</v>
@@ -5591,19 +5591,19 @@
         <v>112851</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95825</v>
+        <v>94653</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133086</v>
+        <v>132718</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2944205488203903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.250000979422508</v>
+        <v>0.2469413772398516</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3472115978249351</v>
+        <v>0.3462516186822781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>276</v>
@@ -5612,19 +5612,19 @@
         <v>313154</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>287336</v>
+        <v>286447</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>340438</v>
+        <v>339363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4514845424310459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.414261662137653</v>
+        <v>0.4129795904934348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4908211351625858</v>
+        <v>0.4892711948688108</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>110008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92253</v>
+        <v>93246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127217</v>
+        <v>127228</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.354508066234078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2972928501572117</v>
+        <v>0.3004929216643</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.409965164103594</v>
+        <v>0.4100028831266355</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>237</v>
@@ -5662,19 +5662,19 @@
         <v>270449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>250214</v>
+        <v>250582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>287475</v>
+        <v>288647</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7055794511796097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.652788402175065</v>
+        <v>0.6537483813177218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.749999020577492</v>
+        <v>0.7530586227601485</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>337</v>
@@ -5683,19 +5683,19 @@
         <v>380456</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>353172</v>
+        <v>354247</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>406274</v>
+        <v>407163</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5485154575689541</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5091788648374141</v>
+        <v>0.5107288051311895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.585738337862347</v>
+        <v>0.5870204095065656</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>323264</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>317603</v>
+        <v>317404</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>326257</v>
+        <v>326293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9849165810766826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9676681061510115</v>
+        <v>0.9670623758618261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9940333520045139</v>
+        <v>0.9941447400519779</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>219</v>
@@ -5808,19 +5808,19 @@
         <v>234052</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>215260</v>
+        <v>214145</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>252666</v>
+        <v>252318</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6349956909640089</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.584011250118469</v>
+        <v>0.5809881888503164</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6854974120868353</v>
+        <v>0.6845541818242071</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>533</v>
@@ -5829,19 +5829,19 @@
         <v>557316</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>535169</v>
+        <v>534954</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>576817</v>
+        <v>577084</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7998189051103408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7680354766884954</v>
+        <v>0.7677258816055659</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8278046824721835</v>
+        <v>0.8281888597512845</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>4951</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1958</v>
+        <v>1922</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10612</v>
+        <v>10811</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01508341892331739</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005966647995486052</v>
+        <v>0.005855259948022081</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03233189384898853</v>
+        <v>0.032937624138174</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -5879,19 +5879,19 @@
         <v>134536</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>115922</v>
+        <v>116270</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>153328</v>
+        <v>154443</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3650043090359911</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3145025879131647</v>
+        <v>0.3154458181757929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.415988749881531</v>
+        <v>0.4190118111496837</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -5900,19 +5900,19 @@
         <v>139487</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119986</v>
+        <v>119719</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>161634</v>
+        <v>161849</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2001810948896591</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1721953175278164</v>
+        <v>0.1718111402487154</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2319645233115045</v>
+        <v>0.2322741183944341</v>
       </c>
     </row>
     <row r="21">
@@ -6004,7 +6004,7 @@
         <v>250401</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>246863</v>
+        <v>245963</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>252094</v>
@@ -6013,7 +6013,7 @@
         <v>0.9932852296351824</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9792496944235375</v>
+        <v>0.9756807932136627</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -6025,19 +6025,19 @@
         <v>294675</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>274770</v>
+        <v>275446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>314171</v>
+        <v>313860</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.743731349730781</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6934922410808321</v>
+        <v>0.6951996148068593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7929365049265361</v>
+        <v>0.7921507872484175</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>516</v>
@@ -6046,19 +6046,19 @@
         <v>545077</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>522086</v>
+        <v>523174</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>565524</v>
+        <v>564591</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8407704867094031</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8053084428207706</v>
+        <v>0.806985816165824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8723107443391114</v>
+        <v>0.8708710524792299</v>
       </c>
     </row>
     <row r="23">
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5231</v>
+        <v>6131</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006714770364817568</v>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02075030557646249</v>
+        <v>0.02431920678633761</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>76</v>
@@ -6096,19 +6096,19 @@
         <v>101537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>82041</v>
+        <v>82352</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>121442</v>
+        <v>120766</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.256268650269219</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2070634950734639</v>
+        <v>0.2078492127515826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.306507758919168</v>
+        <v>0.3048003851931405</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>78</v>
@@ -6117,19 +6117,19 @@
         <v>103229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>82782</v>
+        <v>83715</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>126220</v>
+        <v>125132</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1592295132905968</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1276892556608886</v>
+        <v>0.1291289475207701</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1946915571792294</v>
+        <v>0.193014183834176</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>902225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>863166</v>
+        <v>859441</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>946459</v>
+        <v>948433</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4635552000949618</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4434870773061729</v>
+        <v>0.4415732256726386</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4862822079331806</v>
+        <v>0.4872965874936976</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>639</v>
@@ -6242,19 +6242,19 @@
         <v>742021</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>695754</v>
+        <v>688176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>789777</v>
+        <v>788587</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3018460071529139</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2830251059357509</v>
+        <v>0.2799426836237374</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3212726229862083</v>
+        <v>0.3207888197976912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1542</v>
@@ -6263,19 +6263,19 @@
         <v>1644246</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1578912</v>
+        <v>1581230</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1713381</v>
+        <v>1712397</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3733026194381282</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3584695447151721</v>
+        <v>0.3589957819901721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3889988145367836</v>
+        <v>0.3887753130960044</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1044091</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>999857</v>
+        <v>997883</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1083150</v>
+        <v>1086875</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5364447999050381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5137177920668196</v>
+        <v>0.5127034125063021</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5565129226938275</v>
+        <v>0.5584267743273612</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1640</v>
@@ -6313,19 +6313,19 @@
         <v>1716255</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1668499</v>
+        <v>1669689</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1762522</v>
+        <v>1770100</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6981539928470861</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6787273770137917</v>
+        <v>0.679211180202309</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7169748940642494</v>
+        <v>0.7200573163762627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2621</v>
@@ -6334,19 +6334,19 @@
         <v>2760347</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2691212</v>
+        <v>2692196</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2825681</v>
+        <v>2823363</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6266973805618719</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6110011854632164</v>
+        <v>0.6112246869039958</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6415304552848285</v>
+        <v>0.6410042180098281</v>
       </c>
     </row>
     <row r="27">
@@ -6684,16 +6684,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9261</v>
+        <v>8826</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.005821881770217569</v>
+        <v>0.005821881770217566</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03075373218139923</v>
+        <v>0.02930962442596585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -6702,19 +6702,19 @@
         <v>5384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1499</v>
+        <v>1469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15463</v>
+        <v>16043</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02028689329061858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005647758726926515</v>
+        <v>0.005535677358956219</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05825945497541419</v>
+        <v>0.0604465201391824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6723,19 +6723,19 @@
         <v>7138</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1861</v>
+        <v>1740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17960</v>
+        <v>18752</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0125984743131827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003284485849983501</v>
+        <v>0.003071357553671413</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03170113058659412</v>
+        <v>0.03309869299643543</v>
       </c>
     </row>
     <row r="5">
@@ -6752,16 +6752,16 @@
         <v>299375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>291867</v>
+        <v>292302</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>301128</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9941781182297827</v>
+        <v>0.9941781182297824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9692462678186003</v>
+        <v>0.9706903755740341</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>260031</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249952</v>
+        <v>249372</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263916</v>
+        <v>263946</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9797131067093816</v>
+        <v>0.9797131067093814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9417405450245846</v>
+        <v>0.9395534798608177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9943522412730735</v>
+        <v>0.9944643226410438</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>269</v>
@@ -6794,19 +6794,19 @@
         <v>559405</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>548583</v>
+        <v>547791</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>564682</v>
+        <v>564803</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9874015256868172</v>
+        <v>0.9874015256868174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.968298869413403</v>
+        <v>0.9669013070035627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9967155141500165</v>
+        <v>0.9969286424463285</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>8362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2731</v>
+        <v>3683</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16141</v>
+        <v>16661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1048150015315321</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03422916531549301</v>
+        <v>0.04616406596511932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2023322215684779</v>
+        <v>0.2088503159207013</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6919,19 +6919,19 @@
         <v>13146</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7011</v>
+        <v>6744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21986</v>
+        <v>22662</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07227789258092696</v>
+        <v>0.07227789258092697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03854846249715784</v>
+        <v>0.03708154022450047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1208808817586086</v>
+        <v>0.1246006613601654</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -6940,19 +6940,19 @@
         <v>21508</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11970</v>
+        <v>13555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32125</v>
+        <v>33955</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0821982423663032</v>
+        <v>0.08219824236630323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04574860955106058</v>
+        <v>0.05180346839166299</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1227772693001226</v>
+        <v>0.1297707436710544</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>71415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63636</v>
+        <v>63116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77046</v>
+        <v>76094</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8951849984684682</v>
+        <v>0.895184998468468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.797667778431522</v>
+        <v>0.7911496840792986</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.965770834684507</v>
+        <v>0.9538359340348808</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -6990,19 +6990,19 @@
         <v>168732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>159892</v>
+        <v>159216</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>174867</v>
+        <v>175134</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.927722107419073</v>
+        <v>0.9277221074190729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8791191182413914</v>
+        <v>0.8753993386398345</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9614515375028421</v>
+        <v>0.9629184597754995</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>193</v>
@@ -7011,19 +7011,19 @@
         <v>240147</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>229530</v>
+        <v>227700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>249685</v>
+        <v>248100</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9178017576336968</v>
+        <v>0.917801757633697</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8772227306998769</v>
+        <v>0.8702292563289457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9542513904489393</v>
+        <v>0.9481965316083371</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>20835</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13238</v>
+        <v>13543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30847</v>
+        <v>30462</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2598536640300282</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1651037204669269</v>
+        <v>0.168906124708651</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3847204547699695</v>
+        <v>0.3799231285630575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -7136,19 +7136,19 @@
         <v>28743</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20932</v>
+        <v>20983</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37993</v>
+        <v>38069</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1289494432701595</v>
+        <v>0.1289494432701594</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09390831428094674</v>
+        <v>0.09413464537644049</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1704514562379334</v>
+        <v>0.170789580306042</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -7157,19 +7157,19 @@
         <v>49578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38754</v>
+        <v>38615</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63669</v>
+        <v>62246</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1635803851801234</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1278661585615423</v>
+        <v>0.127408386923172</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2100745464399896</v>
+        <v>0.205379312932382</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>59345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49333</v>
+        <v>49718</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66942</v>
+        <v>66637</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7401463359699718</v>
+        <v>0.7401463359699717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6152795452300297</v>
+        <v>0.6200768714369412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8348962795330719</v>
+        <v>0.8310938752913487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>259</v>
@@ -7207,19 +7207,19 @@
         <v>194156</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>184906</v>
+        <v>184830</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>201967</v>
+        <v>201916</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8710505567298406</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8295485437620664</v>
+        <v>0.8292104196939579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9060916857190532</v>
+        <v>0.9058653546235594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>312</v>
@@ -7228,19 +7228,19 @@
         <v>253501</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>239410</v>
+        <v>240833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>264325</v>
+        <v>264464</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8364196148198765</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7899254535600104</v>
+        <v>0.794620687067618</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8721338414384577</v>
+        <v>0.8725916130768281</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>60716</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49452</v>
+        <v>48215</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74075</v>
+        <v>74039</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4042345070932769</v>
+        <v>0.404234507093277</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3292451272630913</v>
+        <v>0.3210097548620139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4931809742268543</v>
+        <v>0.4929382785027289</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -7353,19 +7353,19 @@
         <v>46132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36894</v>
+        <v>36952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57945</v>
+        <v>57097</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1654204235577088</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1322964131444588</v>
+        <v>0.1325021924063229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2077812808238947</v>
+        <v>0.2047387409309242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -7374,19 +7374,19 @@
         <v>106848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90665</v>
+        <v>91010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125418</v>
+        <v>124957</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2490177159008185</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2113020316649124</v>
+        <v>0.2121068275193929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2922972911101663</v>
+        <v>0.2912241044247925</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>89483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76124</v>
+        <v>76160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100747</v>
+        <v>101984</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.595765492906723</v>
+        <v>0.5957654929067231</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5068190257731456</v>
+        <v>0.5070617214972697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6707548727369087</v>
+        <v>0.6789902451379861</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>355</v>
@@ -7424,19 +7424,19 @@
         <v>232745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>220932</v>
+        <v>221780</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241983</v>
+        <v>241925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8345795764422912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7922187191761055</v>
+        <v>0.7952612590690759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8677035868555411</v>
+        <v>0.8674978075936771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>441</v>
@@ -7445,19 +7445,19 @@
         <v>322228</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303658</v>
+        <v>304119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>338411</v>
+        <v>338066</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7509822840991816</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7077027088898339</v>
+        <v>0.7087758955752075</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7886979683350878</v>
+        <v>0.7878931724806071</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>179528</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164351</v>
+        <v>163647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194046</v>
+        <v>194090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6450318413656769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5905009508944908</v>
+        <v>0.5879714568444655</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6971930525686149</v>
+        <v>0.6973515765252231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -7570,19 +7570,19 @@
         <v>117879</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105301</v>
+        <v>105499</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132824</v>
+        <v>135273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3174747138329453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2835982001498185</v>
+        <v>0.2841315044149652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3577257916222826</v>
+        <v>0.3643202318998235</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>385</v>
@@ -7591,19 +7591,19 @@
         <v>297408</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>274935</v>
+        <v>275677</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>318406</v>
+        <v>318797</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4578127251543533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4232201692905649</v>
+        <v>0.4243623923673094</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4901368679993693</v>
+        <v>0.4907381320791204</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>98797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84279</v>
+        <v>84235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>113974</v>
+        <v>114678</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3549681586343231</v>
+        <v>0.354968158634323</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3028069474313848</v>
+        <v>0.3026484234747769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4094990491055089</v>
+        <v>0.4120285431555342</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>417</v>
@@ -7641,19 +7641,19 @@
         <v>253423</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>238478</v>
+        <v>236029</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>266001</v>
+        <v>265803</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6825252861670548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6422742083777174</v>
+        <v>0.6356797681001767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7164017998501815</v>
+        <v>0.7158684955850347</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>526</v>
@@ -7662,19 +7662,19 @@
         <v>352219</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>331221</v>
+        <v>330830</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>374692</v>
+        <v>373950</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5421872748456468</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5098631320006308</v>
+        <v>0.5092618679208797</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5767798307094349</v>
+        <v>0.5756376076326908</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>331580</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>319143</v>
+        <v>319495</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>341520</v>
+        <v>341891</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8547805557858802</v>
+        <v>0.85478055578588</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8227180844116958</v>
+        <v>0.8236251674390587</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8804023191895539</v>
+        <v>0.881359332165493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>463</v>
@@ -7787,19 +7787,19 @@
         <v>249490</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>235856</v>
+        <v>234875</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>264875</v>
+        <v>263979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5975557300259382</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5649003853137109</v>
+        <v>0.5625502721725343</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6344049008700827</v>
+        <v>0.6322577416174078</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>924</v>
@@ -7808,19 +7808,19 @@
         <v>581071</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>562310</v>
+        <v>561932</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>599633</v>
+        <v>601679</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.7214408346242789</v>
+        <v>0.7214408346242788</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6981481142345807</v>
+        <v>0.6976782060232094</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7444876703882779</v>
+        <v>0.7470269557224234</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>56333</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46393</v>
+        <v>46022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>68770</v>
+        <v>68418</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.14521944421412</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1195976808104459</v>
+        <v>0.118640667834507</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1772819155883041</v>
+        <v>0.1763748325609412</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>324</v>
@@ -7858,19 +7858,19 @@
         <v>168028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152643</v>
+        <v>153539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>181662</v>
+        <v>182643</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4024442699740619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3655950991299172</v>
+        <v>0.3677422583825923</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4350996146862889</v>
+        <v>0.4374497278274655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>406</v>
@@ -7879,19 +7879,19 @@
         <v>224360</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>205798</v>
+        <v>203752</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>243121</v>
+        <v>243499</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2785591653757212</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2555123296117221</v>
+        <v>0.2529730442775762</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3018518857654193</v>
+        <v>0.3023217939767903</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>271675</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>261524</v>
+        <v>262018</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>280221</v>
+        <v>280009</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8809692144328779</v>
+        <v>0.8809692144328781</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8480529349847483</v>
+        <v>0.8496531899654149</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9086829812833903</v>
+        <v>0.9079955760198892</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>657</v>
@@ -8004,19 +8004,19 @@
         <v>349990</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>334027</v>
+        <v>336130</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>362166</v>
+        <v>361871</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.7572766546732145</v>
+        <v>0.7572766546732144</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7227375116320585</v>
+        <v>0.727287824218764</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7836227409139425</v>
+        <v>0.7829840195459545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1057</v>
@@ -8025,19 +8025,19 @@
         <v>621665</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>604090</v>
+        <v>605355</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>636242</v>
+        <v>637501</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8067795781036798</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7839719469789002</v>
+        <v>0.7856131173093961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8256974416736431</v>
+        <v>0.8273314599042966</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>36707</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28161</v>
+        <v>28373</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46858</v>
+        <v>46364</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1190307855671219</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09131701871661008</v>
+        <v>0.09200442398011066</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1519470650152518</v>
+        <v>0.1503468100345852</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>220</v>
@@ -8075,19 +8075,19 @@
         <v>112179</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>100003</v>
+        <v>100298</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>128142</v>
+        <v>126039</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2427233453267856</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2163772590860576</v>
+        <v>0.2170159804540455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2772624883679415</v>
+        <v>0.2727121757812357</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>276</v>
@@ -8096,19 +8096,19 @@
         <v>148886</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>134309</v>
+        <v>133050</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>166461</v>
+        <v>165196</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1932204218963201</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1743025583263571</v>
+        <v>0.1726685400957036</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2160280530210998</v>
+        <v>0.2143868826906039</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>874450</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>830169</v>
+        <v>828246</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>920335</v>
+        <v>917733</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5513887680970891</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.523467444680313</v>
+        <v>0.5222550828412503</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5803220499493489</v>
+        <v>0.5786813653468095</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1433</v>
@@ -8221,19 +8221,19 @@
         <v>810764</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>770248</v>
+        <v>773108</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>848010</v>
+        <v>850646</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3685193055784265</v>
+        <v>0.3685193055784266</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3501033437173701</v>
+        <v>0.3514033627066935</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3854488634138085</v>
+        <v>0.3866470633781927</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2568</v>
@@ -8242,19 +8242,19 @@
         <v>1685213</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1630171</v>
+        <v>1634382</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1741350</v>
+        <v>1749323</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4451216008317878</v>
+        <v>0.4451216008317879</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4305830870206366</v>
+        <v>0.4316951990191983</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4599490526034813</v>
+        <v>0.4620550453562696</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>711454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>665569</v>
+        <v>668171</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>755735</v>
+        <v>757658</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4486112319029107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4196779500506511</v>
+        <v>0.4213186346531907</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4765325553196869</v>
+        <v>0.4777449171587497</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1869</v>
@@ -8292,19 +8292,19 @@
         <v>1389294</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1352048</v>
+        <v>1349412</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1429810</v>
+        <v>1426950</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6314806944215733</v>
+        <v>0.6314806944215734</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6145511365861914</v>
+        <v>0.6133529366218072</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6498966562826299</v>
+        <v>0.6485966372933065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2423</v>
@@ -8313,19 +8313,19 @@
         <v>2100749</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2044612</v>
+        <v>2036639</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2155791</v>
+        <v>2151580</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5548783991682121</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5400509473965187</v>
+        <v>0.5379449546437303</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5694169129793635</v>
+        <v>0.5683048009808017</v>
       </c>
     </row>
     <row r="27">
